--- a/04_Entregable 2/previo/resumen_bdd_2025-03-06_AG.xlsx
+++ b/04_Entregable 2/previo/resumen_bdd_2025-03-06_AG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
   <si>
     <t>raiz</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>36</t>
+  </si>
+  <si>
+    <t>Tiene dos hojas</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,6 +811,12 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
